--- a/PangkalanData/public/Template/Template Kepegawaian.xlsx
+++ b/PangkalanData/public/Template/Template Kepegawaian.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unit</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Semua Kelamin</t>
   </si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>I/a</t>
-  </si>
-  <si>
-    <t>Balai Bahasa Jawa Tengah</t>
   </si>
 </sst>
 </file>
@@ -108,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -136,44 +130,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -205,6 +207,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -219,24 +236,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,22 +260,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,13 +268,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +288,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,74 +499,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,156 +524,221 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1102,10 +1096,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -1115,7 +1109,7 @@
     <col min="4" max="4" width="21.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:28">
+    <row r="1" ht="25" customHeight="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1197,17 +1191,11 @@
       <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
     </row>
     <row r="3" ht="22" customHeight="1"/>
   </sheetData>

--- a/PangkalanData/public/Template/Template Kepegawaian.xlsx
+++ b/PangkalanData/public/Template/Template Kepegawaian.xlsx
@@ -19,10 +19,10 @@
     <t>Semua Kelamin</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jumlah Laki</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jumlah Perempuan</t>
+    <t>Jumlah Laki</t>
+  </si>
+  <si>
+    <t>Jumlah Perempuan</t>
   </si>
   <si>
     <t>S3</t>
@@ -102,10 +102,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -132,12 +132,36 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,26 +175,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,22 +198,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -207,22 +207,15 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,8 +229,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,14 +253,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,174 +288,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -463,12 +469,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,11 +497,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,26 +527,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,23 +569,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,148 +597,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1099,7 +1099,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2"/>

--- a/PangkalanData/public/Template/Template Kepegawaian.xlsx
+++ b/PangkalanData/public/Template/Template Kepegawaian.xlsx
@@ -123,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
   </numFmts>
   <fonts count="22">
@@ -152,12 +152,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -174,14 +175,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -287,9 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,13 +322,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,31 +442,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,133 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,6 +608,17 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,164 +709,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1236,7 +1236,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1381,9 +1381,6 @@
       <c r="A3" s="11"/>
       <c r="B3" s="2"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>

--- a/PangkalanData/public/Template/Template Kepegawaian.xlsx
+++ b/PangkalanData/public/Template/Template Kepegawaian.xlsx
@@ -122,12 +122,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="[$Rp-421]#,##0_);[Red]\([$Rp-421]#,##0\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -158,8 +157,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -168,24 +190,24 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,6 +227,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -213,10 +243,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,14 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -258,9 +280,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,28 +289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,19 +321,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -346,31 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,25 +441,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,91 +459,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,7 +550,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -560,7 +561,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -571,7 +574,9 @@
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,6 +613,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +639,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,21 +701,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -700,24 +714,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,140 +728,143 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,22 +873,19 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -892,16 +894,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,9 +908,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="2" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1236,7 +1231,7 @@
   <dimension ref="A1:AD22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1244,582 +1239,279 @@
     <col min="1" max="1" width="27.7777777777778" style="1" customWidth="1"/>
     <col min="2" max="2" width="1.55555555555556" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.44444444444444" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.8888888888889" style="1" customWidth="1"/>
-    <col min="7" max="30" width="10.1111111111111" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="14.2222222222222" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.8888888888889" style="4" customWidth="1"/>
+    <col min="7" max="30" width="10.1111111111111" style="4" customWidth="1"/>
     <col min="31" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20" customHeight="1" spans="1:30">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="19"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="8"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="18" customHeight="1" spans="1:30">
-      <c r="A2" s="10"/>
+      <c r="A2" s="9"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="11" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="15" customHeight="1" spans="1:30">
-      <c r="A3" s="11"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="14"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="15"/>
-      <c r="AD3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="17" customHeight="1" spans="1:30">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-    </row>
-    <row r="5" ht="15.15" spans="1:30">
-      <c r="A5" s="11"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-    </row>
-    <row r="6" spans="1:30">
-      <c r="A6" s="16" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:1">
+      <c r="A5" s="10"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-    </row>
-    <row r="7" spans="1:30">
-      <c r="A7" s="17" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-    </row>
-    <row r="8" ht="15.15" spans="1:30">
-      <c r="A8" s="18"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="15"/>
-      <c r="V8" s="15"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="8" ht="15.15" spans="1:1">
+      <c r="A8" s="15"/>
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="15"/>
-      <c r="Y11" s="15"/>
-      <c r="Z11" s="15"/>
-      <c r="AA11" s="15"/>
-      <c r="AB11" s="15"/>
-      <c r="AC11" s="15"/>
-      <c r="AD11" s="15"/>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:1">
       <c r="A12"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15"/>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15"/>
-      <c r="AA12" s="15"/>
-      <c r="AB12" s="15"/>
-      <c r="AC12" s="15"/>
-      <c r="AD12" s="15"/>
-    </row>
-    <row r="13" spans="1:30">
+    </row>
+    <row r="13" spans="1:1">
       <c r="A13"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15"/>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15"/>
-      <c r="AA13" s="15"/>
-      <c r="AB13" s="15"/>
-      <c r="AC13" s="15"/>
-      <c r="AD13" s="15"/>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:1">
       <c r="A14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="15"/>
-      <c r="Y14" s="15"/>
-      <c r="Z14" s="15"/>
-      <c r="AA14" s="15"/>
-      <c r="AB14" s="15"/>
-      <c r="AC14" s="15"/>
-      <c r="AD14" s="15"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:30">
       <c r="A15"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16" spans="1:1">
       <c r="A16"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-    </row>
-    <row r="17" spans="1:30">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="15"/>
-      <c r="Y17" s="15"/>
-      <c r="Z17" s="15"/>
-      <c r="AA17" s="15"/>
-      <c r="AB17" s="15"/>
-      <c r="AC17" s="15"/>
-      <c r="AD17" s="15"/>
-    </row>
-    <row r="18" spans="1:30">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="15"/>
-      <c r="Z18" s="15"/>
-      <c r="AA18" s="15"/>
-      <c r="AB18" s="15"/>
-      <c r="AC18" s="15"/>
-      <c r="AD18" s="15"/>
     </row>
     <row r="19" spans="1:1">
       <c r="A19"/>
@@ -1843,8 +1535,8 @@
     <mergeCell ref="C1:C2"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="O1;O2;D1:D2;E1:E2;F1:F2;G1:G2;H1:H2;I1:I2;J1:J2;K1:K2;L1:L2;M1:M2;N1:N2;P1:P2;Q1:Q2;R1:R2;S1:S2;T1:T2;U1:U2;V1:V2;W1:W2;X1:X2;Y1:Y2;Z1:Z2;AA1:AA2;AB1:AB2;AC1:AC2;AD1:AD2"/>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah" error="Harus Berupa Angka" sqref="D3:D19;E3:E19;F3:F19;G3:G18;G19:G1048576;H3:H18;H19:H1048576;I3:I18;I19:I1048576;J3:J18;J19:J1048576;K3:K18;K19:K1048576;L3:L18;L19:L1048576;M3:M18;M19:M1048576;N3:N18;N19:N1048576;O3:O18;O19:O1048576;P3:P18;P19:P1048576;Q3:Q18;Q19:Q1048576;R3:R18;R19:R1048576;S3:S18;S19:S1048576;T3:T18;T19:T1048576;U3:U18;U19:U1048576;V3:V18;V19:V1048576;W3:W18;W19:W1048576;X3:X18;X19:X1048576;Y3:Y18;Y19:Y1048576;Z3:Z18;Z19:Z1048576;AA3:AA18;AA19:AA1048576;AB3:AB18;AB19:AB1048576;AC3:AC18;AC19:AC1048576;AD3:AD18;AD19:AD1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Masukkan harus berupa angka!" sqref="D1:AD2"/>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Masukkan Salah!" error="Masukkan harus berupa angka!" sqref="D3:AD1048576">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
